--- a/Etudiants.xlsx
+++ b/Etudiants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\4eme\.Net Projects\Projet.NetCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13E94C-75A6-48CD-9261-81059A2FC538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF8B92-2332-43B1-BFB9-A919D4AE21AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF774BF-FDFD-476E-A34D-F750F3FBC6FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12516" xr2:uid="{7CF774BF-FDFD-476E-A34D-F750F3FBC6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -302,6 +302,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,14 +382,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="DEDEDE"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="181B28"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -612,17 +680,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664942CC-5715-447F-88C0-96923341BDC3}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -633,20 +701,20 @@
         <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1230</v>
       </c>
@@ -657,20 +725,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1231</v>
       </c>
@@ -681,20 +749,20 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1232</v>
       </c>
@@ -704,21 +772,21 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1233</v>
       </c>
@@ -729,20 +797,20 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1236</v>
       </c>
@@ -752,21 +820,21 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1237</v>
       </c>
@@ -777,20 +845,20 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1238</v>
       </c>
@@ -800,21 +868,21 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1239</v>
       </c>
@@ -825,20 +893,20 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1240</v>
       </c>
@@ -848,21 +916,21 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1241</v>
       </c>
@@ -873,17 +941,17 @@
         <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>2</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Etudiants.xlsx
+++ b/Etudiants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\My-Github\Projet.NetCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449D02B-9F49-41B3-9E71-56DE0110341A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544FCAD4-C85D-4280-A04C-424EF24DD55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CF774BF-FDFD-476E-A34D-F750F3FBC6FB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="424">
   <si>
     <t>Chaimae</t>
   </si>
@@ -1168,6 +1168,141 @@
   </si>
   <si>
     <t>0687416052</t>
+  </si>
+  <si>
+    <t>Lachgar</t>
+  </si>
+  <si>
+    <t>Zakaria</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>Khouloud</t>
+  </si>
+  <si>
+    <t>Rakhim</t>
+  </si>
+  <si>
+    <t>Laajili</t>
+  </si>
+  <si>
+    <t>Fouzia</t>
+  </si>
+  <si>
+    <t>Mejdoub</t>
+  </si>
+  <si>
+    <t>Herraz</t>
+  </si>
+  <si>
+    <t>Kardouh</t>
+  </si>
+  <si>
+    <t>Sanae</t>
+  </si>
+  <si>
+    <t>Mayzrane</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Nassim</t>
+  </si>
+  <si>
+    <t>Alkama</t>
+  </si>
+  <si>
+    <t>BG838</t>
+  </si>
+  <si>
+    <t>BG839</t>
+  </si>
+  <si>
+    <t>BG840</t>
+  </si>
+  <si>
+    <t>BG841</t>
+  </si>
+  <si>
+    <t>BG842</t>
+  </si>
+  <si>
+    <t>BG843</t>
+  </si>
+  <si>
+    <t>BG844</t>
+  </si>
+  <si>
+    <t>BG845</t>
+  </si>
+  <si>
+    <t>BG846</t>
+  </si>
+  <si>
+    <t>BG847</t>
+  </si>
+  <si>
+    <t>lachgar@gmail.com</t>
+  </si>
+  <si>
+    <t>alaa@hotmail.com</t>
+  </si>
+  <si>
+    <t>rakhim@gmail.com</t>
+  </si>
+  <si>
+    <t>laajili@gmail.com</t>
+  </si>
+  <si>
+    <t>mejdoub@hotmail.com</t>
+  </si>
+  <si>
+    <t>herraz@yahoo.fr</t>
+  </si>
+  <si>
+    <t>kardouh@hotmail.com</t>
+  </si>
+  <si>
+    <t>mayzrane@gmail.com</t>
+  </si>
+  <si>
+    <t>nassim@outlook.fr</t>
+  </si>
+  <si>
+    <t>Alkama@gmail.com</t>
+  </si>
+  <si>
+    <t>0687416053</t>
+  </si>
+  <si>
+    <t>0687416054</t>
+  </si>
+  <si>
+    <t>0687416055</t>
+  </si>
+  <si>
+    <t>0687416056</t>
+  </si>
+  <si>
+    <t>0687416057</t>
+  </si>
+  <si>
+    <t>0687416058</t>
+  </si>
+  <si>
+    <t>0687416059</t>
+  </si>
+  <si>
+    <t>0687416060</t>
+  </si>
+  <si>
+    <t>0687416061</t>
+  </si>
+  <si>
+    <t>0687416062</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664942CC-5715-447F-88C0-96923341BDC3}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,19 +1750,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>394</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>404</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1639,19 +1774,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>405</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
@@ -1663,19 +1798,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>396</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1687,19 +1822,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -1711,19 +1846,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1735,19 +1870,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -1759,19 +1894,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>398</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1783,19 +1918,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>387</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>399</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>409</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
@@ -1807,19 +1942,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>410</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1831,19 +1966,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>411</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -1855,19 +1990,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>402</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -1878,19 +2013,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>403</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>413</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
@@ -1901,19 +2036,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -1924,19 +2059,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G15" s="4">
         <v>3</v>
@@ -1947,19 +2082,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
@@ -1970,19 +2105,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
@@ -1993,19 +2128,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -2016,19 +2151,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
@@ -2039,19 +2174,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2">
         <v>4</v>
@@ -2062,19 +2197,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
@@ -2085,19 +2220,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -2108,19 +2243,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4">
         <v>4</v>
@@ -2131,19 +2266,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -2154,19 +2289,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G25" s="4">
         <v>4</v>
@@ -2177,19 +2312,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -2200,19 +2335,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
@@ -2223,19 +2358,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -2246,19 +2381,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
@@ -2269,19 +2404,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2292,19 +2427,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -2315,19 +2450,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2338,19 +2473,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -2361,19 +2496,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -2384,19 +2519,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2407,19 +2542,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -2430,19 +2565,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -2453,19 +2588,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -2476,19 +2611,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -2499,19 +2634,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -2522,19 +2657,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G41" s="4">
         <v>2</v>
@@ -2545,19 +2680,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
@@ -2568,19 +2703,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G43" s="4">
         <v>2</v>
@@ -2591,19 +2726,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -2614,19 +2749,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
@@ -2637,19 +2772,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
@@ -2660,19 +2795,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G47" s="4">
         <v>3</v>
@@ -2683,19 +2818,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -2706,19 +2841,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="G49" s="4">
         <v>3</v>
@@ -2729,19 +2864,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
@@ -2752,19 +2887,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="G51" s="4">
         <v>3</v>
@@ -2775,19 +2910,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G52" s="2">
         <v>3</v>
@@ -2798,19 +2933,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="G53" s="4">
         <v>4</v>
@@ -2821,19 +2956,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="G54" s="2">
         <v>4</v>
@@ -2844,19 +2979,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="G55" s="4">
         <v>4</v>
@@ -2867,19 +3002,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G56" s="2">
         <v>4</v>
@@ -2890,19 +3025,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="G57" s="4">
         <v>4</v>
@@ -2913,19 +3048,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G58" s="2">
         <v>4</v>
@@ -2936,19 +3071,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G59" s="4">
         <v>4</v>
@@ -2959,19 +3094,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -2982,19 +3117,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -3005,19 +3140,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -3028,19 +3163,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -3051,19 +3186,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -3074,19 +3209,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G65" s="4">
         <v>2</v>
@@ -3097,19 +3232,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3120,19 +3255,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
@@ -3143,19 +3278,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -3166,19 +3301,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="G69" s="4">
         <v>2</v>
@@ -3189,19 +3324,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>1320</v>
+        <v>1298</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -3212,19 +3347,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="G71" s="4">
         <v>3</v>
@@ -3235,19 +3370,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="G72" s="2">
         <v>3</v>
@@ -3258,19 +3393,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="G73" s="4">
         <v>3</v>
@@ -3281,19 +3416,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G74" s="2">
         <v>3</v>
@@ -3304,19 +3439,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G75" s="4">
         <v>4</v>
@@ -3327,19 +3462,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G76" s="2">
         <v>4</v>
@@ -3350,19 +3485,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="G77" s="4">
         <v>4</v>
@@ -3373,19 +3508,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G78" s="2">
         <v>4</v>
@@ -3396,19 +3531,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="G79" s="4">
         <v>4</v>
@@ -3419,19 +3554,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1234</v>
+        <v>1318</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -3442,19 +3577,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>1235</v>
+        <v>1319</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G81" s="4">
         <v>1</v>
@@ -3463,7 +3598,240 @@
         <v>378</v>
       </c>
     </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>1321</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1322</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>1323</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1324</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>1325</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>1327</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>1329</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G91" s="4">
+        <v>2</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E91">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
